--- a/src/test/resources/times/times.xlsx
+++ b/src/test/resources/times/times.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\if1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\times\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E838D1-0D81-433C-B099-40AAF99A8A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C5B94F-25F2-40DA-9360-94D80F6F3BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>setProperty</t>
     <phoneticPr fontId="1"/>
@@ -58,19 +58,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>{"userName":"hugang","caseId":"hugangのテスト","times":"5"}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>${times}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>userName == 'hugang' &amp;&amp; parseInt(times) == 5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>${userName}_${caseId}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{"userName":"hugang","caseId":"hugangのテスト","times":"20"}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{"target":"${times}","value":5}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">userName == 'hugang' </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userName == 'hugang'</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -114,7 +122,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -152,13 +160,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -171,16 +218,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -497,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -508,15 +570,19 @@
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.75" customWidth="1"/>
-    <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
     <col min="5" max="5" width="22.375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.75" customWidth="1"/>
+    <col min="9" max="9" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -526,66 +592,99 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="L1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="6" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7"/>
+      <c r="N2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="11">
+        <v>5</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/test/resources/times/times.xlsx
+++ b/src/test/resources/times/times.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\times\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C5B94F-25F2-40DA-9360-94D80F6F3BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D9C90F-41A7-4F05-BE16-586610D32DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -101,8 +101,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,18 +118,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -132,71 +133,137 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -205,44 +272,41 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -561,9 +625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -586,105 +648,106 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11" t="s">
+      <c r="I2" s="5"/>
+      <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
       <c r="M2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="5"/>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="11">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9">
         <v>5</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="5"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
